--- a/lib/logic/tools/crypto_and_encodings/vigenere_breaker/HighPassFilter.xlsx
+++ b/lib/logic/tools/crypto_and_encodings/vigenere_breaker/HighPassFilter.xlsx
@@ -46,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,16 +93,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -192,88 +192,88 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>6.1470000000000056</c:v>
+                  <c:v>44.846494211744449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8740000000000094</c:v>
+                  <c:v>45.158494211744433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.251000000000005</c:v>
+                  <c:v>60.160894211744441</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>36.337174211744433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.991640211744446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.701382911744425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.694138476744435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.220756263494415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.314043160906927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.089665713448817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.012007138363593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.475231492032634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.648794628018223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.586679607204537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.285670337431519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.669711531147158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.517050665177031</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.217522842505417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.047471410967376</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7649225510062294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3705011340431312</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7633007879281948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9009604591190055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3412371467502879</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2169999999999987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.265000000000029</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.409000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.257000000000019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.25800000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.410000000000025</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.546000000000021</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.428999999999988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.217999999999989</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.043000000000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.158000000000015</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.227999999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.918999999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.939000000000007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.596999999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.713000000000008</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26.074000000000012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.52300000000001</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.933000000000021</c:v>
+                  <c:v>1.4238247105872261</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.709000000000017</c:v>
+                  <c:v>2.7289581856450837</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.570000000000007</c:v>
+                  <c:v>2.1448349869500589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,21 +1332,21 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1354,26 +1354,26 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>76.03</v>
       </c>
       <c r="C3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="4">
         <f>B3</f>
         <v>76.03</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <f>E3-E$33</f>
-        <v>6.1470000000000056</v>
+        <v>44.846494211744449</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
@@ -1383,474 +1383,474 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>80.36</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4">
-        <f>$C$3*B3 + B4 - B3</f>
-        <v>72.757000000000005</v>
-      </c>
-      <c r="F4" s="6">
+        <f>$C$3*(E3 + B4 - B3)</f>
+        <v>76.341999999999985</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F30" si="0">E4-E$33</f>
-        <v>2.8740000000000094</v>
+        <v>45.158494211744433</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>100.17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5">
-        <f t="shared" ref="E5:E30" si="1">$C$3*B4 + B5 - B4</f>
-        <v>92.134</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>22.251000000000005</v>
+        <f t="shared" ref="E5:E30" si="1">$C$3*(E4 + B5 - B4)</f>
+        <v>91.344399999999993</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>60.160894211744441</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>79.900000000000006</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>69.882999999999996</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.520679999999984</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>36.337174211744433</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>83.09</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>75.099999999999994</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>5.2169999999999987</v>
+        <v>67.175145999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>35.991640211744446</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>86.32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>78.010999999999996</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>8.1280000000000001</v>
+        <v>66.884888699999976</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>35.701382911744425</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>88.78</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>80.148000000000025</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>10.265000000000029</v>
+        <v>65.877644264999986</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>34.694138476744435</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>100.17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>91.292000000000002</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>21.409000000000006</v>
+        <v>73.404262051749967</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>42.220756263494415</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>91.5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>81.483000000000018</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>11.600000000000023</v>
+        <v>61.497548949162478</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>30.314043160906927</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>90.29</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>81.140000000000015</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>11.257000000000019</v>
+        <v>57.273171501704368</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>26.089665713448817</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>92.17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>83.141000000000005</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>13.25800000000001</v>
+        <v>56.195512926619145</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>25.012007138363593</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>93.51</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>84.293000000000021</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>14.410000000000025</v>
+        <v>54.658737280288186</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>23.475231492032634</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>100.78</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>91.429000000000016</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>21.546000000000021</v>
+        <v>58.832300416273775</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>27.648794628018223</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>95.39</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>85.311999999999983</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>15.428999999999988</v>
+        <v>50.770185395460089</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>19.586679607204537</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>95.64</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>86.100999999999985</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>16.217999999999989</v>
+        <v>48.469176125687071</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>17.285670337431519</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>96.49</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>86.926000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>17.043000000000006</v>
+        <v>46.85321731940271</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>15.669711531147158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>96.69</v>
       </c>
       <c r="C19" s="2"/>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>87.041000000000011</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>17.158000000000015</v>
+        <v>44.700556453432583</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>13.517050665177031</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>99.78</v>
       </c>
       <c r="C20" s="2"/>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>90.11099999999999</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>20.227999999999994</v>
+        <v>45.401028630760969</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>14.217522842505417</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>97.78</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>87.801999999999992</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>17.918999999999997</v>
+        <v>41.230977199222927</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>10.047471410967376</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>98.6</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>88.822000000000003</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>18.939000000000007</v>
+        <v>39.948428339261781</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7649225510062294</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>101.34</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>91.47999999999999</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>21.596999999999994</v>
+        <v>40.554006922298683</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3705011340431312</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>100.73</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>90.596000000000004</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>20.713000000000008</v>
+        <v>37.946806576183747</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7633007879281948</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>106.03</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>95.957000000000008</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>26.074000000000012</v>
+        <v>41.084466247374557</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9009604591190055</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>102.34</v>
       </c>
       <c r="C26" s="2"/>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>91.736999999999995</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>21.853999999999999</v>
+        <v>35.52474293500584</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3412371467502879</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>99.64</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>89.406000000000006</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>19.52300000000001</v>
+        <v>31.183505788255552</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>102.78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>92.816000000000017</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>22.933000000000021</v>
+        <v>32.607330498842778</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4238247105872261</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>105.87</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>95.592000000000013</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>25.709000000000017</v>
+        <v>33.912463973900635</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7289581856450837</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>107.04</v>
       </c>
       <c r="C30" s="2"/>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>96.453000000000003</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>26.570000000000007</v>
+        <v>33.328340775205611</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1448349869500589</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <f>MAX(E3:E30)</f>
-        <v>96.453000000000003</v>
+        <v>91.344399999999993</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <f>MIN(E3:E30)</f>
-        <v>69.882999999999996</v>
+        <v>31.183505788255552</v>
       </c>
     </row>
   </sheetData>

--- a/lib/logic/tools/crypto_and_encodings/vigenere_breaker/HighPassFilter.xlsx
+++ b/lib/logic/tools/crypto_and_encodings/vigenere_breaker/HighPassFilter.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\GitHub\GC WIzard 1.2.0 - Kopie\GCWizard\lib\logic\tools\crypto_and_encodings\vigenere_breaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GCWizard\lib\logic\tools\crypto_and_encodings\vigenere_breaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871CF68-647A-44BB-A606-08DB7FF50FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="7845"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>length</t>
   </si>
@@ -44,11 +45,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +64,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -93,16 +120,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -135,7 +170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -185,6 +219,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A8E7-4EDA-AA46-AF137BEC7285}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$F$3:$F$30</c:f>
@@ -192,88 +245,88 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>44.846494211744449</c:v>
+                  <c:v>22.898251543122271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.158494211744433</c:v>
+                  <c:v>20.195851543122259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.160894211744441</c:v>
+                  <c:v>22.741499543122274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.337174211744433</c:v>
+                  <c:v>27.451034583122265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.991640211744446</c:v>
+                  <c:v>18.630578922322243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.701382911744425</c:v>
+                  <c:v>20.188332374738252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.694138476744435</c:v>
+                  <c:v>20.450730758105934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.220756263494415</c:v>
+                  <c:v>16.101881173806262</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.314043160906927</c:v>
+                  <c:v>19.905408581192603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.089665713448817</c:v>
+                  <c:v>17.841065440431223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.012007138363593</c:v>
+                  <c:v>16.219809162485035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.475231492032634</c:v>
+                  <c:v>16.365578010097764</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.648794628018223</c:v>
+                  <c:v>13.588031480758261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.586679607204537</c:v>
+                  <c:v>13.521835882005533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.285670337431519</c:v>
+                  <c:v>8.4785641952278752</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.669711531147158</c:v>
+                  <c:v>12.228757942185759</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.517050665177031</c:v>
+                  <c:v>12.63074781420449</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.217522842505417</c:v>
+                  <c:v>11.652697888782839</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.047471410967376</c:v>
+                  <c:v>10.919608961869635</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.7649225510062294</c:v>
+                  <c:v>7.8197818134946786</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3705011340431312</c:v>
+                  <c:v>7.5259512080872284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7633007879281948</c:v>
+                  <c:v>10.030997214787924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9009604591190055</c:v>
+                  <c:v>5.9983423013546329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3412371467502879</c:v>
+                  <c:v>4.084740486189979</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>6.2568107073286257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3282395240445197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8302397644260751</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4238247105872261</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.7289581856450837</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.1448349869500589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,6 +334,1558 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A28-4836-9686-67907B973AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="222034480"/>
+        <c:axId val="222035792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222034480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222035792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222035792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222034480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-98C4-4373-8DA3-A3E6673F6118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$38:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>22.62263110957258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.448431109572581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.597915109572568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.357209429572563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.611717863172558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.634936128100577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.707490027730003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.021992849366882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.763805614570984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.491982124470994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.343595104173019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.335775824281015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.061512929986861</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.56933529357859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6268012098984599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8897178078919623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2551760739255826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0155251746385119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7520672933372055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.524078569661917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7216496204601341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.50446925024238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6334324874289834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7900164598718575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87606875286587638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8168526221914476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65736819193909213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98C4-4373-8DA3-A3E6673F6118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="222034480"/>
+        <c:axId val="222035792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222034480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222035792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222035792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222034480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7C6C-4339-8D0B-532608023EA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$73:$F$96</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.316142997902006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.869942997902001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.763466997902015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.025320517902003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.085136967502009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.026557088110025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.773148806305841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.319808690137762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.436135376293052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.185135528725226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.880355678108756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.926671424504605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.401660855972565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.731550498811174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.801642348792974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5379323617751481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2108965744976814</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3440015029657744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3454443328644814</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84905830616524725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.426142997902005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.663342997902006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.151398997902007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C6C-4339-8D0B-532608023EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="222034480"/>
+        <c:axId val="222035792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222034480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222035792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222035792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222034480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1E13-4734-8E33-B389E4F9BD8C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$107:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>18.29109864130178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.037298641301781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.94537464130179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.167289121301785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.72076531170179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.488971978293783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.918414511553927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.90846819414886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.094320803091897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.591256359856111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2856532054850121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4965621142013461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0556528447433564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.653361760674521</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2791164982870455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4811561411473377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2773549911504247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5496298641534594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1790592396964144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82610002772852198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.261098641301778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.807898641301783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.647962641301795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.441098641301785</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.219498641301762</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.679730641301781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.690158001301775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E13-4734-8E33-B389E4F9BD8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="222034480"/>
+        <c:axId val="222035792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222034480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222035792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222035792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222034480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-91AE-4152-BA59-AEAA5CE4AF03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$143:$F$230</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>51.710019942234034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.238619942234017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.630047942234022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.250047382234037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.827846833434045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.227490295610046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.452940888542507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.920482469616339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.967073219068681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.208732153531969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.41735790930602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.171011149964563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.263591325809955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.873719898138432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.884445899020356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.836557379884638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.259626631131638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.499034497353676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.224454206251281</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.082765520970945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.806710609396205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.790576796052974</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.138565658976582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.548994744641739</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.941415248593572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.621187342466385</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.474363994461733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.947877113417178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.599319969993502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.021733969438309</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.220899688894221</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.956282093961029</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.422156850926477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.094314112752627</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.469228229342249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.513244063600091</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.655579581172759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.618268388394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.317903419470788</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.96474574992606</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.922451233772215</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.224002607941451</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.862922954627301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.294264894379431</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.648379995336526</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.446612794274458</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.318280937233645</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.829515717333663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.458725801831662</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.436751684639717</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.661817049791587</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.53938110764043</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.184593884332308</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.307702405490343</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.408348756225212</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.174582179945396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.317890935191169</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.546933515332015</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.095195243870055</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.005291737837332</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.5847863019252664</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.3780909747314496</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.9501295540815065</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.481727361844559</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.8062932134523386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1843677480279702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.2804807919121011</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.1688715749185441</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.1672945422648553</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.1167490502642359</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0672144681036393</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2252705775862474</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.7329655648792084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0447066524263064</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0762129182224598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.6754890587026878</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6359796763733137</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9112604816905296</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3084356709014031</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5510673563280406</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.91664640804616582</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2357138787299249</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3272003988446777</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92265678971245535</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.87900405276288041</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.11102437055231107</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.40700428198593386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91AE-4152-BA59-AEAA5CE4AF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -488,7 +2093,2187 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1010,7 +4795,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1040,7 +4831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1061,6 +4858,158 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569743E0-43B1-4B7E-BFE8-8820AFCF2602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657B86F9-8170-42F5-B766-FCD0F6BD187B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0124BFFB-C25D-4D3C-B7FA-9C6ED2C0178D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3FC537-E3DF-4DD4-A842-0331416501DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1328,16 +5277,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,19 +5310,19 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>76.03</v>
+      <c r="B3" s="7">
+        <v>72.89</v>
       </c>
       <c r="C3" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="3">
         <f>B3</f>
-        <v>76.03</v>
-      </c>
-      <c r="F3" s="4">
+        <v>72.89</v>
+      </c>
+      <c r="F3" s="3">
         <f>E3-E$33</f>
-        <v>44.846494211744449</v>
+        <v>22.898251543122271</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
@@ -1383,480 +5332,3444 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>80.36</v>
+      <c r="B4" s="7">
+        <v>71.62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4">
         <f>$C$3*(E3 + B4 - B3)</f>
-        <v>76.341999999999985</v>
-      </c>
-      <c r="F4" s="4">
+        <v>70.187599999999989</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F30" si="0">E4-E$33</f>
-        <v>45.158494211744433</v>
+        <v>20.195851543122259</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>100.17</v>
+      <c r="B5" s="7">
+        <v>75.650000000000006</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5">
         <f t="shared" ref="E5:E30" si="1">$C$3*(E4 + B5 - B4)</f>
-        <v>91.344399999999993</v>
-      </c>
-      <c r="F5" s="4">
+        <v>72.733248000000003</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>60.160894211744441</v>
+        <v>22.741499543122274</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>79.900000000000006</v>
+      <c r="B6" s="9">
+        <v>81.94</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>67.520679999999984</v>
-      </c>
-      <c r="F6" s="4">
+        <v>77.442783039999995</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>36.337174211744433</v>
+        <v>27.451034583122265</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>83.09</v>
+      <c r="B7" s="7">
+        <v>74.52</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>67.175145999999998</v>
-      </c>
-      <c r="F7" s="4">
+        <v>68.622327379199973</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>35.991640211744446</v>
+        <v>18.630578922322243</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>86.32</v>
+      <c r="B8" s="7">
+        <v>77.510000000000005</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>66.884888699999976</v>
-      </c>
-      <c r="F8" s="4">
+        <v>70.180080831615982</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>35.701382911744425</v>
+        <v>20.188332374738252</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>88.78</v>
+      <c r="B9" s="7">
+        <v>79.209999999999994</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>65.877644264999986</v>
-      </c>
-      <c r="F9" s="4">
+        <v>70.442479214983663</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>34.694138476744435</v>
+        <v>20.450730758105934</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>100.17</v>
+      <c r="B10" s="7">
+        <v>76.209999999999994</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>73.404262051749967</v>
-      </c>
-      <c r="F10" s="4">
+        <v>66.093629630683992</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>42.220756263494415</v>
+        <v>16.101881173806262</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>91.5</v>
+      <c r="B11" s="7">
+        <v>81.44</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>61.497548949162478</v>
-      </c>
-      <c r="F11" s="4">
+        <v>69.897157038070333</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>30.314043160906927</v>
+        <v>19.905408581192603</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>90.29</v>
+      <c r="B12" s="7">
+        <v>80.760000000000005</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>57.273171501704368</v>
-      </c>
-      <c r="F12" s="4">
+        <v>67.832813897308952</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>26.089665713448817</v>
+        <v>17.841065440431223</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>92.17</v>
+      <c r="B13" s="7">
+        <v>80.489999999999995</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>56.195512926619145</v>
-      </c>
-      <c r="F13" s="4">
+        <v>66.211557619362765</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>25.012007138363593</v>
+        <v>16.219809162485035</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>93.51</v>
+      <c r="B14" s="7">
+        <v>81.99</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>54.658737280288186</v>
-      </c>
-      <c r="F14" s="4">
+        <v>66.357326466975493</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>23.475231492032634</v>
+        <v>16.365578010097764</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>100.78</v>
+      <c r="B15" s="7">
+        <v>80.510000000000005</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>58.832300416273775</v>
-      </c>
-      <c r="F15" s="4">
+        <v>63.57977993763599</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>27.648794628018223</v>
+        <v>13.588031480758261</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
-        <v>95.39</v>
+      <c r="B16" s="7">
+        <v>81.739999999999995</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>50.770185395460089</v>
-      </c>
-      <c r="F16" s="4">
+        <v>63.513584338883263</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>19.586679607204537</v>
+        <v>13.521835882005533</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>95.64</v>
+      <c r="B17" s="7">
+        <v>77.89</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>48.469176125687071</v>
-      </c>
-      <c r="F17" s="4">
+        <v>58.470312652105605</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>17.285670337431519</v>
+        <v>8.4785641952278752</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
-        <v>96.49</v>
+      <c r="B18" s="7">
+        <v>82.91</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>46.85321731940271</v>
-      </c>
-      <c r="F18" s="4">
+        <v>62.220506399063488</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>15.669711531147158</v>
+        <v>12.228757942185759</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
-        <v>96.69</v>
+      <c r="B19" s="7">
+        <v>84.59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>44.700556453432583</v>
-      </c>
-      <c r="F19" s="4">
+        <v>62.62249627108222</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>13.517050665177031</v>
+        <v>12.63074781420449</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
-        <v>99.78</v>
+      <c r="B20" s="7">
+        <v>84.87</v>
       </c>
       <c r="C20" s="2"/>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>45.401028630760969</v>
-      </c>
-      <c r="F20" s="4">
+        <v>61.644446345660569</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>14.217522842505417</v>
+        <v>11.652697888782839</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
-        <v>97.78</v>
+      <c r="B21" s="7">
+        <v>85.38</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>41.230977199222927</v>
-      </c>
-      <c r="F21" s="4">
+        <v>60.911357418747365</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>10.047471410967376</v>
+        <v>10.919608961869635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
-        <v>98.6</v>
+      <c r="B22" s="7">
+        <v>83.46</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>39.948428339261781</v>
-      </c>
-      <c r="F22" s="4">
+        <v>57.811530270372408</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>8.7649225510062294</v>
+        <v>7.8197818134946786</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
-        <v>101.34</v>
+      <c r="B23" s="7">
+        <v>84.34</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>40.554006922298683</v>
-      </c>
-      <c r="F23" s="4">
+        <v>57.517699664964958</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>9.3705011340431312</v>
+        <v>7.5259512080872284</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
-        <v>100.73</v>
+      <c r="B24" s="7">
+        <v>88.07</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>37.946806576183747</v>
-      </c>
-      <c r="F24" s="4">
+        <v>60.022745671665653</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>6.7633007879281948</v>
+        <v>10.030997214787924</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
-        <v>106.03</v>
+      <c r="B25" s="7">
+        <v>85.18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>41.084466247374557</v>
-      </c>
-      <c r="F25" s="4">
+        <v>55.990090758232363</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>9.9009604591190055</v>
+        <v>5.9983423013546329</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
-        <v>102.34</v>
+      <c r="B26" s="7">
+        <v>84.37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>35.52474293500584</v>
-      </c>
-      <c r="F26" s="4">
+        <v>54.076488943067709</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>4.3412371467502879</v>
+        <v>4.084740486189979</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
-        <v>99.64</v>
+      <c r="B27" s="7">
+        <v>87.69</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>31.183505788255552</v>
-      </c>
-      <c r="F27" s="4">
+        <v>56.248559164206355</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2568107073286257</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
-        <v>102.78</v>
+      <c r="B28" s="7">
+        <v>86.87</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>32.607330498842778</v>
-      </c>
-      <c r="F28" s="4">
+        <v>54.319987980922249</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>1.4238247105872261</v>
+        <v>4.3282395240445197</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
-        <v>105.87</v>
+      <c r="B29" s="7">
+        <v>86.45</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>33.912463973900635</v>
-      </c>
-      <c r="F29" s="4">
+        <v>52.821988221303805</v>
+      </c>
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>2.7289581856450837</v>
+        <v>2.8302397644260751</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
-        <v>107.04</v>
+      <c r="B30" s="8">
+        <v>84.64</v>
       </c>
       <c r="C30" s="2"/>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>33.328340775205611</v>
-      </c>
-      <c r="F30" s="4">
+        <v>49.99174845687773</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>2.1448349869500589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="4">
-        <f>MAX(E3:E30)</f>
-        <v>91.344399999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="4">
+      <c r="F32" s="3">
+        <f>MAX(F3:F30)</f>
+        <v>27.451034583122265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
         <f>MIN(E3:E30)</f>
-        <v>31.183505788255552</v>
+        <v>49.99174845687773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>75.84</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="E38" s="3">
+        <f>B38</f>
+        <v>75.84</v>
+      </c>
+      <c r="F38" s="3">
+        <f>E38-E$68</f>
+        <v>22.62263110957258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="E39">
+        <f>$C$3*(E38 + B39 - B38)</f>
+        <v>75.665800000000004</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" ref="F39:F65" si="2">E39-E$68</f>
+        <v>22.448431109572581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9">
+        <v>87.07</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40">
+        <f t="shared" ref="E40:E65" si="3">$C$3*(E39 + B40 - B39)</f>
+        <v>83.815283999999991</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="2"/>
+        <v>30.597915109572568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7">
+        <v>76.290000000000006</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>71.574578319999986</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>18.357209429572563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>70.829086753599981</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>17.611717863172558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>80.5</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>72.852305018528</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="2"/>
+        <v>19.634936128100577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
+      <c r="B44" s="7">
+        <v>80.02</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>70.924858918157426</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="2"/>
+        <v>17.707490027730003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>10</v>
+      </c>
+      <c r="B45" s="7">
+        <v>85.87</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>75.239361739794305</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="2"/>
+        <v>22.021992849366882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>11</v>
+      </c>
+      <c r="B46" s="7">
+        <v>82.04</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>69.981174504998407</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="2"/>
+        <v>16.763805614570984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="7">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>67.709351014898417</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="2"/>
+        <v>14.491982124470994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="7">
+        <v>81.36</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>66.560963994600442</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="2"/>
+        <v>13.343595104173019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" s="7">
+        <v>81.69</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>65.553144714708438</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>12.335775824281015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>15</v>
+      </c>
+      <c r="B50" s="7">
+        <v>87.85</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>70.278881820414284</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>17.061512929986861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7">
+        <v>83.68</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>64.786704184006012</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>11.56933529357859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" s="7">
+        <v>83.02</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>62.844170100325883</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>9.6268012098984599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7">
+        <v>82.53</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>61.107086698319385</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>7.8897178078919623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>19</v>
+      </c>
+      <c r="B54" s="7">
+        <v>84.15</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>61.472544964353006</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="2"/>
+        <v>8.2551760739255826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>20</v>
+      </c>
+      <c r="B55" s="7">
+        <v>85.16</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>61.232894065065935</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0155251746385119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>21</v>
+      </c>
+      <c r="B56" s="7">
+        <v>84.1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>58.969436183764628</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7520672933372055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>22</v>
+      </c>
+      <c r="B57" s="7">
+        <v>83.03</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>56.74144746008934</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>3.524078569661917</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>23</v>
+      </c>
+      <c r="B58" s="7">
+        <v>85.41</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>57.939018510887557</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7216496204601341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>24</v>
+      </c>
+      <c r="B59" s="7">
+        <v>84.33</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>55.721838140669803</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>2.50446925024238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>25</v>
+      </c>
+      <c r="B60" s="7">
+        <v>88.66</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>58.850801377856406</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6334324874289834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7">
+        <v>87.98</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>57.00738535029928</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7900164598718575</v>
+      </c>
+      <c r="J61" s="7">
+        <v>87.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>27</v>
+      </c>
+      <c r="B62" s="7">
+        <v>86.17</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>54.093437643293299</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87606875286587638</v>
+      </c>
+      <c r="J62" s="7">
+        <v>86.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>28</v>
+      </c>
+      <c r="B63" s="7">
+        <v>86.38</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>53.217368890427423</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>86.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>29</v>
+      </c>
+      <c r="B64" s="7">
+        <v>89.32</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>55.034221512618871</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8168526221914476</v>
+      </c>
+      <c r="J64" s="8">
+        <v>84.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>30</v>
+      </c>
+      <c r="B65" s="8">
+        <v>89.26</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>53.874737082366515</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65736819193909213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <f>MAX(F38:F65)</f>
+        <v>30.597915109572568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="3">
+        <f>MIN(E38:E65)</f>
+        <v>53.217368890427423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7">
+        <v>72.72</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="E73" s="3">
+        <f>B73</f>
+        <v>72.72</v>
+      </c>
+      <c r="F73" s="3">
+        <f>E73-E$103</f>
+        <v>21.316142997902006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>4</v>
+      </c>
+      <c r="B74" s="7">
+        <v>76.81</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="E74">
+        <f>$C$3*(E73 + B74 - B73)</f>
+        <v>75.273799999999994</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" ref="F74:F96" si="4">E74-E$103</f>
+        <v>23.869942997902001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>5</v>
+      </c>
+      <c r="B75" s="9">
+        <v>84.36</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="E75">
+        <f t="shared" ref="E75:E93" si="5">$C$3*(E74 + B75 - B74)</f>
+        <v>81.167324000000008</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="4"/>
+        <v>29.763466997902015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>72.429177519999996</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>21.025320517902003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>7</v>
+      </c>
+      <c r="B77" s="7">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>74.488993969600003</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="4"/>
+        <v>23.085136967502009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7">
+        <v>81.12</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>73.430414090208018</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>22.026557088110025</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>9</v>
+      </c>
+      <c r="B79" s="7">
+        <v>82.36</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>73.177005808403834</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
+        <v>21.773148806305841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>10</v>
+      </c>
+      <c r="B80" s="7">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>70.723665692235755</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="4"/>
+        <v>19.319808690137762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>11</v>
+      </c>
+      <c r="B81" s="7">
+        <v>77.81</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>65.839992378391045</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>14.436135376293052</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>12</v>
+      </c>
+      <c r="B82" s="7">
+        <v>85.02</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>71.588992530823219</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
+        <v>20.185135528725226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>13</v>
+      </c>
+      <c r="B83" s="7">
+        <v>86.17</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>71.28421268020675</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="4"/>
+        <v>19.880355678108756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>14</v>
+      </c>
+      <c r="B84" s="7">
+        <v>82.57</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>66.330528426602598</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="4"/>
+        <v>14.926671424504605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>15</v>
+      </c>
+      <c r="B85" s="7">
+        <v>88.49</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>70.805517858070559</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="4"/>
+        <v>19.401660855972565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>16</v>
+      </c>
+      <c r="B86" s="7">
+        <v>86.19</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>67.135407500909167</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="4"/>
+        <v>15.731550498811174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>17</v>
+      </c>
+      <c r="B87" s="7">
+        <v>83.55</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>63.205499350890967</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="4"/>
+        <v>11.801642348792974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>18</v>
+      </c>
+      <c r="B88" s="7">
+        <v>82.53</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>60.941789363873141</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5379323617751481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>19</v>
+      </c>
+      <c r="B89" s="7">
+        <v>83.44</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>60.614753576595675</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="4"/>
+        <v>9.2108965744976814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>20</v>
+      </c>
+      <c r="B90" s="7">
+        <v>77.67</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>53.747858505063768</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="4"/>
+        <v>2.3440015029657744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>21</v>
+      </c>
+      <c r="B91" s="7">
+        <v>82.85</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>57.749301334962475</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="4"/>
+        <v>6.3454443328644814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>22</v>
+      </c>
+      <c r="B92" s="7">
+        <v>78.42</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>52.25291530826324</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84905830616524725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>23</v>
+      </c>
+      <c r="B93" s="7">
+        <v>78.62</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>51.403857002097993</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>24</v>
+      </c>
+      <c r="B94" s="7">
+        <v>79.83</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="E94" s="3">
+        <f>B94</f>
+        <v>79.83</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="4"/>
+        <v>28.426142997902005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>25</v>
+      </c>
+      <c r="B95" s="7">
+        <v>78.64</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="E95">
+        <f>$C$3*(E94 + B95 - B94)</f>
+        <v>77.0672</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="4"/>
+        <v>25.663342997902006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>26</v>
+      </c>
+      <c r="B96" s="8">
+        <v>78.67</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="E96">
+        <f t="shared" ref="E96" si="6">$C$3*(E95 + B96 - B95)</f>
+        <v>75.555256</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="4"/>
+        <v>24.151398997902007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="2"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="2"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="2"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="2"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <f>MAX(F73:F100)</f>
+        <v>29.763466997902015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="3">
+        <f>MIN(E73:E100)</f>
+        <v>51.403857002097993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
+      <c r="B107" s="7">
+        <v>76.41</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="E107" s="3">
+        <f>B107</f>
+        <v>76.41</v>
+      </c>
+      <c r="F107" s="3">
+        <f>E107-E$137</f>
+        <v>18.29109864130178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" s="7">
+        <v>76.69</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="E108">
+        <f>$C$3*(E107 + B108 - B107)</f>
+        <v>75.156199999999998</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" ref="F108:F134" si="7">E108-E$137</f>
+        <v>17.037298641301781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109" s="7">
+        <v>78.13</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="E109">
+        <f t="shared" ref="E109:E127" si="8">$C$3*(E108 + B109 - B108)</f>
+        <v>75.064276000000007</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="7"/>
+        <v>16.94537464130179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>6</v>
+      </c>
+      <c r="B110" s="9">
+        <v>83.97</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="E110">
+        <f t="shared" si="8"/>
+        <v>79.286190480000002</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="7"/>
+        <v>21.167289121301785</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>7</v>
+      </c>
+      <c r="B111" s="7">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="E111">
+        <f t="shared" si="8"/>
+        <v>72.839666670400007</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="7"/>
+        <v>14.72076531170179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>8</v>
+      </c>
+      <c r="B112" s="7">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="E112">
+        <f t="shared" si="8"/>
+        <v>72.607873336992</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="7"/>
+        <v>14.488971978293783</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>9</v>
+      </c>
+      <c r="B113" s="7">
+        <v>82.18</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="E113">
+        <f t="shared" si="8"/>
+        <v>73.037315870252144</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="7"/>
+        <v>14.918414511553927</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>10</v>
+      </c>
+      <c r="B114" s="7">
+        <v>82.64</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="E114">
+        <f t="shared" si="8"/>
+        <v>72.027369552847077</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="7"/>
+        <v>13.90846819414886</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>11</v>
+      </c>
+      <c r="B115" s="7">
+        <v>85.32</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>73.213222161790114</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="7"/>
+        <v>15.094320803091897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>12</v>
+      </c>
+      <c r="B116" s="7">
+        <v>84.26</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>70.710157718554328</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="7"/>
+        <v>12.591256359856111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>13</v>
+      </c>
+      <c r="B117" s="7">
+        <v>82.33</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="E117">
+        <f t="shared" si="8"/>
+        <v>67.404554564183229</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="7"/>
+        <v>9.2856532054850121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>14</v>
+      </c>
+      <c r="B118" s="7">
+        <v>81.88</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="E118">
+        <f t="shared" si="8"/>
+        <v>65.615463472899563</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="7"/>
+        <v>7.4965621142013461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>15</v>
+      </c>
+      <c r="B119" s="7">
+        <v>84.81</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="E119">
+        <f t="shared" si="8"/>
+        <v>67.174554203441573</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="7"/>
+        <v>9.0556528447433564</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>16</v>
+      </c>
+      <c r="B120" s="7">
+        <v>84.75</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="E120">
+        <f t="shared" si="8"/>
+        <v>65.772263119372738</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="7"/>
+        <v>7.653361760674521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>17</v>
+      </c>
+      <c r="B121" s="7">
+        <v>84.69</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="E121">
+        <f t="shared" si="8"/>
+        <v>64.398017856985263</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="7"/>
+        <v>6.2791164982870455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>18</v>
+      </c>
+      <c r="B122" s="7">
+        <v>85.19</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="E122">
+        <f t="shared" si="8"/>
+        <v>63.600057499845555</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="7"/>
+        <v>5.4811561411473377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>19</v>
+      </c>
+      <c r="B123" s="7">
+        <v>86.28</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="E123">
+        <f t="shared" si="8"/>
+        <v>63.396256349848642</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2773549911504247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>20</v>
+      </c>
+      <c r="B124" s="7">
+        <v>83.77</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="E124">
+        <f t="shared" si="8"/>
+        <v>59.668531222851676</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5496298641534594</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>21</v>
+      </c>
+      <c r="B125" s="7">
+        <v>85.63</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="E125">
+        <f t="shared" si="8"/>
+        <v>60.297960598394631</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1790592396964144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>22</v>
+      </c>
+      <c r="B126" s="7">
+        <v>85.48</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="E126">
+        <f t="shared" si="8"/>
+        <v>58.945001386426739</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="7"/>
+        <v>0.82610002772852198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>23</v>
+      </c>
+      <c r="B127" s="7">
+        <v>85.84</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="E127">
+        <f t="shared" si="8"/>
+        <v>58.118901358698217</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>24</v>
+      </c>
+      <c r="B128" s="7">
+        <v>86.38</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="E128" s="3">
+        <f>B128</f>
+        <v>86.38</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="7"/>
+        <v>28.261098641301778</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>25</v>
+      </c>
+      <c r="B129" s="7">
+        <v>86.66</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="E129">
+        <f>$C$3*(E128 + B129 - B128)</f>
+        <v>84.9268</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="7"/>
+        <v>26.807898641301783</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>26</v>
+      </c>
+      <c r="B130" s="7">
+        <v>88.23</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="E130">
+        <f t="shared" ref="E130" si="9">$C$3*(E129 + B130 - B129)</f>
+        <v>84.766864000000012</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="7"/>
+        <v>26.647962641301795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>27</v>
+      </c>
+      <c r="B131" s="7">
+        <v>87.56</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="E131" s="3">
+        <f>B131</f>
+        <v>87.56</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" si="7"/>
+        <v>29.441098641301785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>28</v>
+      </c>
+      <c r="B132" s="7">
+        <v>87.08</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="E132">
+        <f>$C$3*(E131 + B132 - B131)</f>
+        <v>85.338399999999979</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="7"/>
+        <v>27.219498641301762</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>29</v>
+      </c>
+      <c r="B133" s="7">
+        <v>86.23</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="E133">
+        <f t="shared" ref="E133:E134" si="10">$C$3*(E132 + B133 - B132)</f>
+        <v>82.798631999999998</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="7"/>
+        <v>24.679730641301781</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>30</v>
+      </c>
+      <c r="B134" s="8">
+        <v>86.91</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="E134">
+        <f t="shared" si="10"/>
+        <v>81.809059359999992</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="7"/>
+        <v>23.690158001301775</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" s="3">
+        <f>MAX(F107:F134)</f>
+        <v>29.441098641301785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="3">
+        <f>MIN(E107:E134)</f>
+        <v>58.118901358698217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>3</v>
+      </c>
+      <c r="B143" s="7">
+        <v>70.12</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="E143" s="3">
+        <f>B143</f>
+        <v>70.12</v>
+      </c>
+      <c r="F143" s="3">
+        <f>E143-E$232</f>
+        <v>51.710019942234034</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>4</v>
+      </c>
+      <c r="B144" s="7">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="E144">
+        <f t="shared" ref="E144:E207" si="11">$C$3*(E143 + B144 - B143)</f>
+        <v>69.648599999999988</v>
+      </c>
+      <c r="F144" s="3">
+        <f t="shared" ref="F144:F207" si="12">E144-E$232</f>
+        <v>51.238619942234017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>5</v>
+      </c>
+      <c r="B145" s="7">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="E145">
+        <f t="shared" si="11"/>
+        <v>68.040027999999992</v>
+      </c>
+      <c r="F145" s="3">
+        <f t="shared" si="12"/>
+        <v>49.630047942234022</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>6</v>
+      </c>
+      <c r="B146" s="7">
+        <v>69.81</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="E146">
+        <f t="shared" si="11"/>
+        <v>65.660027440000007</v>
+      </c>
+      <c r="F146" s="3">
+        <f t="shared" si="12"/>
+        <v>47.250047382234037</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>7</v>
+      </c>
+      <c r="B147" s="7">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="E147">
+        <f t="shared" si="11"/>
+        <v>67.237826891200015</v>
+      </c>
+      <c r="F147" s="3">
+        <f t="shared" si="12"/>
+        <v>48.827846833434045</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>8</v>
+      </c>
+      <c r="B148" s="7">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="E148">
+        <f t="shared" si="11"/>
+        <v>67.637470353376017</v>
+      </c>
+      <c r="F148" s="3">
+        <f t="shared" si="12"/>
+        <v>49.227490295610046</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>9</v>
+      </c>
+      <c r="B149" s="7">
+        <v>75.13</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="E149">
+        <f t="shared" si="11"/>
+        <v>66.862920946308478</v>
+      </c>
+      <c r="F149" s="3">
+        <f t="shared" si="12"/>
+        <v>48.452940888542507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>10</v>
+      </c>
+      <c r="B150" s="7">
+        <v>72.89</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="E150">
+        <f t="shared" si="11"/>
+        <v>63.330462527382309</v>
+      </c>
+      <c r="F150" s="3">
+        <f t="shared" si="12"/>
+        <v>44.920482469616339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>11</v>
+      </c>
+      <c r="B151" s="7">
+        <v>74.23</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="E151">
+        <f t="shared" si="11"/>
+        <v>63.377053276834651</v>
+      </c>
+      <c r="F151" s="3">
+        <f t="shared" si="12"/>
+        <v>44.967073219068681</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>12</v>
+      </c>
+      <c r="B152" s="7">
+        <v>75.77</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="E152">
+        <f t="shared" si="11"/>
+        <v>63.61871221129794</v>
+      </c>
+      <c r="F152" s="3">
+        <f t="shared" si="12"/>
+        <v>45.208732153531969</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>13</v>
+      </c>
+      <c r="B153" s="7">
+        <v>74.22</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="E153">
+        <f t="shared" si="11"/>
+        <v>60.82733796707199</v>
+      </c>
+      <c r="F153" s="3">
+        <f t="shared" si="12"/>
+        <v>42.41735790930602</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>14</v>
+      </c>
+      <c r="B154" s="7">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="E154">
+        <f t="shared" si="11"/>
+        <v>60.580991207730534</v>
+      </c>
+      <c r="F154" s="3">
+        <f t="shared" si="12"/>
+        <v>42.171011149964563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>15</v>
+      </c>
+      <c r="B155" s="7">
+        <v>74.5</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="E155">
+        <f t="shared" si="11"/>
+        <v>58.673571383575926</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="12"/>
+        <v>40.263591325809955</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>16</v>
+      </c>
+      <c r="B156" s="7">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="E156">
+        <f t="shared" si="11"/>
+        <v>59.283699955904403</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="12"/>
+        <v>40.873719898138432</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>17</v>
+      </c>
+      <c r="B157" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="E157">
+        <f t="shared" si="11"/>
+        <v>57.294425956786327</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" si="12"/>
+        <v>38.884445899020356</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" s="7">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="E158">
+        <f t="shared" si="11"/>
+        <v>56.246537437650609</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="12"/>
+        <v>37.836557379884638</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>19</v>
+      </c>
+      <c r="B159" s="7">
+        <v>78.2</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="E159">
+        <f t="shared" si="11"/>
+        <v>57.669606688897609</v>
+      </c>
+      <c r="F159" s="3">
+        <f t="shared" si="12"/>
+        <v>39.259626631131638</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>20</v>
+      </c>
+      <c r="B160" s="7">
+        <v>76.56</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="E160">
+        <f t="shared" si="11"/>
+        <v>54.909014555119647</v>
+      </c>
+      <c r="F160" s="3">
+        <f t="shared" si="12"/>
+        <v>36.499034497353676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>21</v>
+      </c>
+      <c r="B161" s="7">
+        <v>76.38</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="E161">
+        <f t="shared" si="11"/>
+        <v>53.634434264017251</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" si="12"/>
+        <v>35.224454206251281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>22</v>
+      </c>
+      <c r="B162" s="7">
+        <v>77.33</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="E162">
+        <f t="shared" si="11"/>
+        <v>53.492745578736915</v>
+      </c>
+      <c r="F162" s="3">
+        <f t="shared" si="12"/>
+        <v>35.082765520970945</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>23</v>
+      </c>
+      <c r="B163" s="7">
+        <v>78.14</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="E163">
+        <f t="shared" si="11"/>
+        <v>53.216690667162176</v>
+      </c>
+      <c r="F163" s="3">
+        <f t="shared" si="12"/>
+        <v>34.806710609396205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>24</v>
+      </c>
+      <c r="B164" s="7">
+        <v>80.23</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="E164">
+        <f t="shared" si="11"/>
+        <v>54.200556853818945</v>
+      </c>
+      <c r="F164" s="3">
+        <f t="shared" si="12"/>
+        <v>35.790576796052974</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>25</v>
+      </c>
+      <c r="B165" s="7">
+        <v>78.63</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="E165">
+        <f t="shared" si="11"/>
+        <v>51.548545716742552</v>
+      </c>
+      <c r="F165" s="3">
+        <f t="shared" si="12"/>
+        <v>33.138565658976582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>26</v>
+      </c>
+      <c r="B166" s="7">
+        <v>78.06</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="E166">
+        <f t="shared" si="11"/>
+        <v>49.95897480240771</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" si="12"/>
+        <v>31.548994744641739</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>27</v>
+      </c>
+      <c r="B167" s="7">
+        <v>79.48</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="E167">
+        <f t="shared" si="11"/>
+        <v>50.351395306359542</v>
+      </c>
+      <c r="F167" s="3">
+        <f t="shared" si="12"/>
+        <v>31.941415248593572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>28</v>
+      </c>
+      <c r="B168" s="7">
+        <v>78.14</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="E168">
+        <f t="shared" si="11"/>
+        <v>48.031167400232356</v>
+      </c>
+      <c r="F168" s="3">
+        <f t="shared" si="12"/>
+        <v>29.621187342466385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>29</v>
+      </c>
+      <c r="B169" s="7">
+        <v>77.95</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="E169">
+        <f t="shared" si="11"/>
+        <v>46.884344052227704</v>
+      </c>
+      <c r="F169" s="3">
+        <f t="shared" si="12"/>
+        <v>28.474363994461733</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>30</v>
+      </c>
+      <c r="B170" s="7">
+        <v>79.39</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="E170">
+        <f t="shared" si="11"/>
+        <v>47.357857171183149</v>
+      </c>
+      <c r="F170" s="3">
+        <f t="shared" si="12"/>
+        <v>28.947877113417178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>31</v>
+      </c>
+      <c r="B171" s="7">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="11"/>
+        <v>45.009300027759473</v>
+      </c>
+      <c r="F171" s="3">
+        <f t="shared" si="12"/>
+        <v>26.599319969993502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>32</v>
+      </c>
+      <c r="B172" s="7">
+        <v>80.33</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="11"/>
+        <v>46.431714027204279</v>
+      </c>
+      <c r="F172" s="3">
+        <f t="shared" si="12"/>
+        <v>28.021733969438309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>33</v>
+      </c>
+      <c r="B173" s="7">
+        <v>79.44</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="11"/>
+        <v>44.630879746660192</v>
+      </c>
+      <c r="F173" s="3">
+        <f t="shared" si="12"/>
+        <v>26.220899688894221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>34</v>
+      </c>
+      <c r="B174" s="7">
+        <v>78.040000000000006</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="11"/>
+        <v>42.366262151727</v>
+      </c>
+      <c r="F174" s="3">
+        <f t="shared" si="12"/>
+        <v>23.956282093961029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>35</v>
+      </c>
+      <c r="B175" s="7">
+        <v>79.38</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="11"/>
+        <v>42.832136908692448</v>
+      </c>
+      <c r="F175" s="3">
+        <f t="shared" si="12"/>
+        <v>24.422156850926477</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>36</v>
+      </c>
+      <c r="B176" s="7">
+        <v>80.94</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="11"/>
+        <v>43.504294170518598</v>
+      </c>
+      <c r="F176" s="3">
+        <f t="shared" si="12"/>
+        <v>25.094314112752627</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>37</v>
+      </c>
+      <c r="B177" s="7">
+        <v>81.19</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="11"/>
+        <v>42.87920828710822</v>
+      </c>
+      <c r="F177" s="3">
+        <f t="shared" si="12"/>
+        <v>24.469228229342249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>38</v>
+      </c>
+      <c r="B178" s="7">
+        <v>82.11</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="11"/>
+        <v>42.923224121366061</v>
+      </c>
+      <c r="F178" s="3">
+        <f t="shared" si="12"/>
+        <v>24.513244063600091</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>39</v>
+      </c>
+      <c r="B179" s="7">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="11"/>
+        <v>40.06555963893873</v>
+      </c>
+      <c r="F179" s="3">
+        <f t="shared" si="12"/>
+        <v>21.655579581172759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>40</v>
+      </c>
+      <c r="B180" s="7">
+        <v>81.87</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="11"/>
+        <v>41.028248446159971</v>
+      </c>
+      <c r="F180" s="3">
+        <f t="shared" si="12"/>
+        <v>22.618268388394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>41</v>
+      </c>
+      <c r="B181" s="7">
+        <v>80.36</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="11"/>
+        <v>38.727883477236759</v>
+      </c>
+      <c r="F181" s="3">
+        <f t="shared" si="12"/>
+        <v>20.317903419470788</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>42</v>
+      </c>
+      <c r="B182" s="7">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="11"/>
+        <v>38.37472580769203</v>
+      </c>
+      <c r="F182" s="3">
+        <f t="shared" si="12"/>
+        <v>19.96474574992606</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>43</v>
+      </c>
+      <c r="B183" s="7">
+        <v>81.53</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="11"/>
+        <v>38.332431291538185</v>
+      </c>
+      <c r="F183" s="3">
+        <f t="shared" si="12"/>
+        <v>19.922451233772215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44</v>
+      </c>
+      <c r="B184" s="7">
+        <v>82.62</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="11"/>
+        <v>38.633982665707421</v>
+      </c>
+      <c r="F184" s="3">
+        <f t="shared" si="12"/>
+        <v>20.224002607941451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45</v>
+      </c>
+      <c r="B185" s="7">
+        <v>83.04</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="11"/>
+        <v>38.272903012393272</v>
+      </c>
+      <c r="F185" s="3">
+        <f t="shared" si="12"/>
+        <v>19.862922954627301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>46</v>
+      </c>
+      <c r="B186" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="11"/>
+        <v>35.704244952145402</v>
+      </c>
+      <c r="F186" s="3">
+        <f t="shared" si="12"/>
+        <v>17.294264894379431</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>47</v>
+      </c>
+      <c r="B187" s="7">
+        <v>82.29</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="11"/>
+        <v>36.058360053102497</v>
+      </c>
+      <c r="F187" s="3">
+        <f t="shared" si="12"/>
+        <v>17.648379995336526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>48</v>
+      </c>
+      <c r="B188" s="7">
+        <v>82.82</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="11"/>
+        <v>35.856592852040428</v>
+      </c>
+      <c r="F188" s="3">
+        <f t="shared" si="12"/>
+        <v>17.446612794274458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>49</v>
+      </c>
+      <c r="B189" s="7">
+        <v>81.38</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="11"/>
+        <v>33.728260994999616</v>
+      </c>
+      <c r="F189" s="3">
+        <f t="shared" si="12"/>
+        <v>15.318280937233645</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>50</v>
+      </c>
+      <c r="B190" s="7">
+        <v>82.59</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="11"/>
+        <v>34.239495775099634</v>
+      </c>
+      <c r="F190" s="3">
+        <f t="shared" si="12"/>
+        <v>15.829515717333663</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>51</v>
+      </c>
+      <c r="B191" s="7">
+        <v>81.89</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="11"/>
+        <v>32.868705859597632</v>
+      </c>
+      <c r="F191" s="3">
+        <f t="shared" si="12"/>
+        <v>14.458725801831662</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>52</v>
+      </c>
+      <c r="B192" s="9">
+        <v>86.62</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="11"/>
+        <v>36.846731742405687</v>
+      </c>
+      <c r="F192" s="3">
+        <f t="shared" si="12"/>
+        <v>18.436751684639717</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>53</v>
+      </c>
+      <c r="B193" s="7">
+        <v>83.52</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="11"/>
+        <v>33.071797107557558</v>
+      </c>
+      <c r="F193" s="3">
+        <f t="shared" si="12"/>
+        <v>14.661817049791587</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>54</v>
+      </c>
+      <c r="B194" s="7">
+        <v>84.07</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="11"/>
+        <v>32.949361165406401</v>
+      </c>
+      <c r="F194" s="3">
+        <f t="shared" si="12"/>
+        <v>14.53938110764043</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>55</v>
+      </c>
+      <c r="B195" s="7">
+        <v>83.36</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="11"/>
+        <v>31.594573942098279</v>
+      </c>
+      <c r="F195" s="3">
+        <f t="shared" si="12"/>
+        <v>13.184593884332308</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>56</v>
+      </c>
+      <c r="B196" s="7">
+        <v>83.11</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="11"/>
+        <v>30.717682463256313</v>
+      </c>
+      <c r="F196" s="3">
+        <f t="shared" si="12"/>
+        <v>12.307702405490343</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>57</v>
+      </c>
+      <c r="B197" s="7">
+        <v>84.86</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="11"/>
+        <v>31.818328813991183</v>
+      </c>
+      <c r="F197" s="3">
+        <f t="shared" si="12"/>
+        <v>13.408348756225212</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>58</v>
+      </c>
+      <c r="B198" s="7">
+        <v>83.23</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="11"/>
+        <v>29.584562237711367</v>
+      </c>
+      <c r="F198" s="3">
+        <f t="shared" si="12"/>
+        <v>11.174582179945396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>59</v>
+      </c>
+      <c r="B199" s="7">
+        <v>83.98</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="11"/>
+        <v>29.72787099295714</v>
+      </c>
+      <c r="F199" s="3">
+        <f t="shared" si="12"/>
+        <v>11.317890935191169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>60</v>
+      </c>
+      <c r="B200" s="7">
+        <v>83.8</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="11"/>
+        <v>28.956913573097985</v>
+      </c>
+      <c r="F200" s="3">
+        <f t="shared" si="12"/>
+        <v>10.546933515332015</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>61</v>
+      </c>
+      <c r="B201" s="7">
+        <v>83.93</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="11"/>
+        <v>28.505175301636026</v>
+      </c>
+      <c r="F201" s="3">
+        <f t="shared" si="12"/>
+        <v>10.095195243870055</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>62</v>
+      </c>
+      <c r="B202" s="7">
+        <v>84.42</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="11"/>
+        <v>28.415271795603303</v>
+      </c>
+      <c r="F202" s="3">
+        <f t="shared" si="12"/>
+        <v>10.005291737837332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>63</v>
+      </c>
+      <c r="B203" s="7">
+        <v>82.53</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="11"/>
+        <v>25.994766359691237</v>
+      </c>
+      <c r="F203" s="3">
+        <f t="shared" si="12"/>
+        <v>7.5847863019252664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>64</v>
+      </c>
+      <c r="B204" s="7">
+        <v>83.87</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="11"/>
+        <v>26.78807103249742</v>
+      </c>
+      <c r="F204" s="3">
+        <f t="shared" si="12"/>
+        <v>8.3780909747314496</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>65</v>
+      </c>
+      <c r="B205" s="7">
+        <v>83.98</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="11"/>
+        <v>26.360109611847477</v>
+      </c>
+      <c r="F205" s="3">
+        <f t="shared" si="12"/>
+        <v>7.9501295540815065</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>66</v>
+      </c>
+      <c r="B206" s="7">
+        <v>84.04</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="11"/>
+        <v>25.89170741961053</v>
+      </c>
+      <c r="F206" s="3">
+        <f t="shared" si="12"/>
+        <v>7.481727361844559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>67</v>
+      </c>
+      <c r="B207" s="7">
+        <v>85.92</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="11"/>
+        <v>27.216273271218309</v>
+      </c>
+      <c r="F207" s="3">
+        <f t="shared" si="12"/>
+        <v>8.8062932134523386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>68</v>
+      </c>
+      <c r="B208" s="7">
+        <v>83.8</v>
+      </c>
+      <c r="E208">
+        <f t="shared" ref="E208:E230" si="13">$C$3*(E207 + B208 - B207)</f>
+        <v>24.594347805793941</v>
+      </c>
+      <c r="F208" s="3">
+        <f t="shared" ref="F208:F230" si="14">E208-E$232</f>
+        <v>6.1843677480279702</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>69</v>
+      </c>
+      <c r="B209" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="13"/>
+        <v>24.690460849678072</v>
+      </c>
+      <c r="F209" s="3">
+        <f t="shared" si="14"/>
+        <v>6.2804807919121011</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>70</v>
+      </c>
+      <c r="B210" s="7">
+        <v>84.79</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="13"/>
+        <v>24.578851632684515</v>
+      </c>
+      <c r="F210" s="3">
+        <f t="shared" si="14"/>
+        <v>6.1688715749185441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>71</v>
+      </c>
+      <c r="B211" s="7">
+        <v>85.29</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="13"/>
+        <v>24.577274600030826</v>
+      </c>
+      <c r="F211" s="3">
+        <f t="shared" si="14"/>
+        <v>6.1672945422648553</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>72</v>
+      </c>
+      <c r="B212" s="7">
+        <v>85.74</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="13"/>
+        <v>24.526729108030207</v>
+      </c>
+      <c r="F212" s="3">
+        <f t="shared" si="14"/>
+        <v>6.1167490502642359</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>73</v>
+      </c>
+      <c r="B213" s="7">
+        <v>86.19</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="13"/>
+        <v>24.47719452586961</v>
+      </c>
+      <c r="F213" s="3">
+        <f t="shared" si="14"/>
+        <v>6.0672144681036393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>74</v>
+      </c>
+      <c r="B214" s="7">
+        <v>84.81</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="13"/>
+        <v>22.635250635352218</v>
+      </c>
+      <c r="F214" s="3">
+        <f t="shared" si="14"/>
+        <v>4.2252705775862474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>75</v>
+      </c>
+      <c r="B215" s="7">
+        <v>85.79</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="13"/>
+        <v>23.142945622645179</v>
+      </c>
+      <c r="F215" s="3">
+        <f t="shared" si="14"/>
+        <v>4.7329655648792084</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>76</v>
+      </c>
+      <c r="B216" s="7">
+        <v>85.56</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="13"/>
+        <v>22.454686710192277</v>
+      </c>
+      <c r="F216" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0447066524263064</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>77</v>
+      </c>
+      <c r="B217" s="7">
+        <v>85.03</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="13"/>
+        <v>21.48619297598843</v>
+      </c>
+      <c r="F217" s="3">
+        <f t="shared" si="14"/>
+        <v>3.0762129182224598</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>78</v>
+      </c>
+      <c r="B218" s="7">
+        <v>86.08</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="13"/>
+        <v>22.085469116468659</v>
+      </c>
+      <c r="F218" s="3">
+        <f t="shared" si="14"/>
+        <v>3.6754890587026878</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>79</v>
+      </c>
+      <c r="B219" s="7">
+        <v>85.47</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="13"/>
+        <v>21.045959734139284</v>
+      </c>
+      <c r="F219" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6359796763733137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>80</v>
+      </c>
+      <c r="B220" s="7">
+        <v>85.16</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="13"/>
+        <v>20.3212405394565</v>
+      </c>
+      <c r="F220" s="3">
+        <f t="shared" si="14"/>
+        <v>1.9112604816905296</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>81</v>
+      </c>
+      <c r="B221" s="7">
+        <v>85.98</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="13"/>
+        <v>20.718415728667374</v>
+      </c>
+      <c r="F221" s="3">
+        <f t="shared" si="14"/>
+        <v>2.3084356709014031</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>82</v>
+      </c>
+      <c r="B222" s="7">
+        <v>85.63</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="13"/>
+        <v>19.961047414094011</v>
+      </c>
+      <c r="F222" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5510673563280406</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>83</v>
+      </c>
+      <c r="B223" s="7">
+        <v>85.39</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="13"/>
+        <v>19.326626465812137</v>
+      </c>
+      <c r="F223" s="3">
+        <f t="shared" si="14"/>
+        <v>0.91664640804616582</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>84</v>
+      </c>
+      <c r="B224" s="7">
+        <v>86.11</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="13"/>
+        <v>19.645693936495896</v>
+      </c>
+      <c r="F224" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2357138787299249</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>85</v>
+      </c>
+      <c r="B225" s="7">
+        <v>85.25</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="13"/>
+        <v>18.409980057765971</v>
+      </c>
+      <c r="F225" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>86</v>
+      </c>
+      <c r="B226" s="7">
+        <v>86.98</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="13"/>
+        <v>19.737180456610648</v>
+      </c>
+      <c r="F226" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3272003988446777</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>87</v>
+      </c>
+      <c r="B227" s="7">
+        <v>86.97</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="13"/>
+        <v>19.332636847478426</v>
+      </c>
+      <c r="F227" s="3">
+        <f t="shared" si="14"/>
+        <v>0.92265678971245535</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>88</v>
+      </c>
+      <c r="B228" s="7">
+        <v>87.32</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="13"/>
+        <v>19.288984110528851</v>
+      </c>
+      <c r="F228" s="3">
+        <f t="shared" si="14"/>
+        <v>0.87900405276288041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>89</v>
+      </c>
+      <c r="B229" s="7">
+        <v>86.93</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="13"/>
+        <v>18.521004428318282</v>
+      </c>
+      <c r="F229" s="3">
+        <f t="shared" si="14"/>
+        <v>0.11102437055231107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>90</v>
+      </c>
+      <c r="B230" s="8">
+        <v>87.61</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="13"/>
+        <v>18.816984339751905</v>
+      </c>
+      <c r="F230" s="3">
+        <f t="shared" si="14"/>
+        <v>0.40700428198593386</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" s="3">
+        <f>MAX(F143:F230)</f>
+        <v>51.710019942234034</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E232" s="3">
+        <f>MIN(E143:E231)</f>
+        <v>18.409980057765971</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
